--- a/data/performance_sheets_option3_flatten/window2/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3_flatten/window2/BA47 Overall Model Peformance Results.xlsx
@@ -894,19 +894,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03482935701157479</v>
+        <v>0.0391078983929872</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1492761775508428</v>
+        <v>0.1542815605192919</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.2009338563891563</v>
+        <v>0.3453942811802127</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1866262495244835</v>
+        <v>0.1977571702694677</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>21.40085768363254</v>
+        <v>25.21479245558708</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -924,19 +924,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.03482935701157479</v>
+        <v>0.0391078983929872</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1492761775508428</v>
+        <v>0.1542815605192919</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2009338563891563</v>
+        <v>0.3453942811802127</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.1866262495244835</v>
+        <v>0.1977571702694677</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>21.40085768363254</v>
+        <v>25.21479245558708</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -1014,23 +1014,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03763383958895779</v>
+        <v>0.0364780194100145</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1504992981222304</v>
+        <v>0.1536226458867642</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1945955457147209</v>
+        <v>0.2732073903234427</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1939944318503956</v>
+        <v>0.1909921972490356</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>21.55982312399258</v>
+        <v>25.00745170843762</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -1044,23 +1044,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.03763832135576382</v>
+        <v>0.0372626134022959</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1504784811858911</v>
+        <v>0.1557418650410453</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1945501714557011</v>
+        <v>0.2777524371523249</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1940059827834281</v>
+        <v>0.1930352646598438</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>21.55630787268383</v>
+        <v>25.29510494592739</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -1592,53 +1592,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.0261542548283572</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1166537018484495</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2453411944247567</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1617227715207641</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>19.72629847070863</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>0.03247084585778274</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.14500544422009</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0.194482311678487</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>0.1801966865893564</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>20.83194218664812</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>0.032444243680351</v>
+        <v>0.0336009320634719</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1459493802728665</v>
+        <v>0.1351916598592414</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1959501747702642</v>
+        <v>0.2767369572737098</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.18012285718462</v>
+        <v>0.1833055701921575</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>20.9885148885057</v>
+        <v>22.55796383494202</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -1740,13 +1740,13 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.01414687465876341</v>
+        <v>0.014146875</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.07875451445579529</v>
+        <v>0.07875453</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2281693518161774</v>
+        <v>0.22816935</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.11894063501917</v>
@@ -1770,13 +1770,13 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.01739734970033169</v>
+        <v>0.01739735</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.09531703591346741</v>
+        <v>0.09531703599999999</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2658992111682892</v>
+        <v>0.26589918</v>
       </c>
       <c r="O22" s="8" t="n">
         <v>0.1318990132651935</v>
@@ -1802,19 +1802,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02326588705182076</v>
+        <v>0.023271216</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1245112717151642</v>
+        <v>0.12453081</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.166246235370636</v>
+        <v>0.1662761</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1525315936185705</v>
+        <v>0.152549061221604</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.21847409009933</v>
+        <v>18.22170615196228</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -1832,19 +1832,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03445869311690331</v>
+        <v>0.034476385</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1483838260173798</v>
+        <v>0.14843151</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1921585351228714</v>
+        <v>0.19222307</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1856305285153908</v>
+        <v>0.1856781745939212</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>21.17902338504791</v>
+        <v>21.1865708231926</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -1864,19 +1864,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03189010173082352</v>
+        <v>0.031918388</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1430185288190842</v>
+        <v>0.14304562</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2946053743362427</v>
+        <v>0.2946364</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1785779990111422</v>
+        <v>0.1786571797047623</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>23.66298884153366</v>
+        <v>23.66746962070465</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -1894,19 +1894,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.056431595236063</v>
+        <v>0.056440398</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1987137794494629</v>
+        <v>0.19873692</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3470920324325562</v>
+        <v>0.34712455</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2375533523991253</v>
+        <v>0.2375718798533157</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>33.85108709335327</v>
+        <v>33.85555744171143</v>
       </c>
     </row>
   </sheetData>
@@ -2209,19 +2209,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2616953232759602</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3308489167878408</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2031787550172416</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5115616514907663</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>14.2017972742216</v>
+        <v>16.53272817053076</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -2239,19 +2239,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.2616953232759602</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3308489167878408</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2031787550172416</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.5115616514907663</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>14.2017972742216</v>
+        <v>16.53272817053076</v>
       </c>
     </row>
     <row r="10">
@@ -2333,19 +2333,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09335983032898311</v>
+        <v>0.4943203093380082</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2734156622904971</v>
+        <v>0.5782974914406257</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1184351786123934</v>
+        <v>0.2652958119979545</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3055484091416336</v>
+        <v>0.703079162924068</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>11.56681897433462</v>
+        <v>25.79781195220766</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -2363,19 +2363,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.2232536813992681</v>
+        <v>0.5478909027810013</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3744445784121971</v>
+        <v>0.6271421244846416</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1446306864402369</v>
+        <v>0.297249914325781</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4724972818961694</v>
+        <v>0.7401965298358276</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>14.84748623826422</v>
+        <v>28.00537667448873</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -2907,53 +2907,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1.013961972387764</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.8881121460140614</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.4194275060300882</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.00695678774601</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>41.3208392904285</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>0.6014033269205097</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.7292374133129891</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0.3183359447703891</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>0.7755019838275784</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>32.17444457366573</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>2.203781807061709</v>
+        <v>2.411207081499909</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>1.275860654100685</v>
+        <v>1.357052668681295</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.4821651652836991</v>
+        <v>0.5177942308063949</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.484513996923474</v>
+        <v>1.552806195730783</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>72.72598412877075</v>
+        <v>75.9778842322319</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -3055,19 +3055,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.9193601012229919</v>
+        <v>0.9193599</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.802141010761261</v>
+        <v>0.802141</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4663561582565308</v>
+        <v>0.46635616</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.958832676342954</v>
+        <v>0.9588325830973088</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>29.63880300521851</v>
+        <v>29.6388030052185</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -3085,19 +3085,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.5427310466766357</v>
+        <v>0.5427311</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4955633580684662</v>
+        <v>0.49556342</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3528591096401215</v>
+        <v>0.35285914</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7367028211406793</v>
+        <v>0.7367028615943341</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>20.64027190208435</v>
+        <v>20.64027339220047</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -3117,16 +3117,16 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2861071527004242</v>
+        <v>0.28610724</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3970402479171753</v>
+        <v>0.39704025</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1606040000915527</v>
+        <v>0.16060403</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5348898509977771</v>
+        <v>0.5348899345728908</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>16.09167903661728</v>
@@ -3147,19 +3147,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.2883372902870178</v>
+        <v>0.2883373</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4616398513317108</v>
+        <v>0.46163994</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1723497360944748</v>
+        <v>0.17234974</v>
       </c>
       <c r="O23" s="8" t="n">
         <v>0.5369704743158769</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>18.46584230661392</v>
+        <v>18.46584677696228</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -3179,19 +3179,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6393367648124695</v>
+        <v>0.6380495</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5286895036697388</v>
+        <v>0.52812034</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3809916973114014</v>
+        <v>0.38064736</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7995853705593102</v>
+        <v>0.7987799968071655</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>21.49748951196671</v>
+        <v>21.48095518350601</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.9648416638374329</v>
+        <v>0.9649241</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.7826082706451416</v>
+        <v>0.7827636</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4901438355445862</v>
+        <v>0.49018183</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.9822635409285193</v>
+        <v>0.9823055008810432</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>29.11215126514435</v>
+        <v>29.11696135997772</v>
       </c>
     </row>
   </sheetData>
@@ -3521,19 +3521,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1529578787043435</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2777347546232478</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1255895264380591</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3910982980074746</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.02166239305382</v>
+        <v>14.00947691908368</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -3547,23 +3547,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1529578787043435</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2777347546232478</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1255895264380591</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.3910982980074746</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>11.02166239305382</v>
+        <v>14.00947691908368</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -3645,19 +3645,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09643960375608361</v>
+        <v>0.3864499877877462</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2639106313830122</v>
+        <v>0.4791927766168293</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1081264351601445</v>
+        <v>0.2172688879930514</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3105472649309338</v>
+        <v>0.6216510176841555</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>11.0513058029253</v>
+        <v>20.46684909681907</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -3675,19 +3675,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.3082943635388047</v>
+        <v>0.3216117514489734</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3997470928835576</v>
+        <v>0.4331618313443644</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1601350746143982</v>
+        <v>0.2082121961502666</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.5552426168251179</v>
+        <v>0.5671082360969318</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>17.18264508710619</v>
+        <v>18.5336025270031</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -4219,23 +4219,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>5.017716497279014</v>
+        <v>2.166882044098424</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.147651385482959</v>
+        <v>1.214681796922763</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8028543783757761</v>
+        <v>0.4830073460638792</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2.240026003705987</v>
+        <v>1.472033302645841</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>139.7471241570068</v>
+        <v>64.35369551700801</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -4249,23 +4249,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.279615805339884</v>
+        <v>1.729456602026235</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.9762817320509301</v>
+        <v>1.172963409646945</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3683686742077462</v>
+        <v>0.4484824414493781</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.131201045499819</v>
+        <v>1.31508805865852</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>49.19097794003034</v>
+        <v>59.60726198307352</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -4367,19 +4367,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3521505892276764</v>
+        <v>0.3521506</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3385505080223083</v>
+        <v>0.3385506</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2377198785543442</v>
+        <v>0.23771991</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.593422774443041</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>14.36105370521545</v>
+        <v>14.36105519533157</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -4397,19 +4397,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.3872202336788177</v>
+        <v>0.38722035</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5406019687652588</v>
+        <v>0.54060215</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.260565847158432</v>
+        <v>0.26056588</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.6222702256084712</v>
+        <v>0.6222703213942533</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>23.24027419090271</v>
+        <v>23.24028015136719</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -4429,19 +4429,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2156662046909332</v>
+        <v>0.2156662</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3932121992111206</v>
+        <v>0.3932122</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1425122171640396</v>
+        <v>0.14251222</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0.4643987561255233</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.25051295757294</v>
+        <v>15.25051146745682</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -4459,19 +4459,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1390033960342407</v>
+        <v>0.13900334</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3082303702831268</v>
+        <v>0.3082303</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1130104660987854</v>
+        <v>0.11301044</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3728315920549662</v>
+        <v>0.3728315121198796</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>11.14191710948944</v>
+        <v>11.14191487431526</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -4491,19 +4491,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4503315687179565</v>
+        <v>0.44981173</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4468982517719269</v>
+        <v>0.4465794</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2837884724140167</v>
+        <v>0.28361988</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6710674844737723</v>
+        <v>0.6706800480173448</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>17.96680390834808</v>
+        <v>17.95648783445358</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -4521,19 +4521,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.8699278235435486</v>
+        <v>0.8697844</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.7894464731216431</v>
+        <v>0.7893508</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4268806576728821</v>
+        <v>0.42683765</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.9326992138645495</v>
+        <v>0.9326223323340584</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>28.2500833272934</v>
+        <v>28.24722826480865</v>
       </c>
     </row>
   </sheetData>
@@ -4833,19 +4833,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06726084144585461</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2155105058152709</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0765684654293943</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2593469518730741</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.834417109646166</v>
+        <v>10.7104634776949</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -4863,19 +4863,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06726084144585461</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2155105058152709</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.0765684654293943</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2593469518730741</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>7.834417109646166</v>
+        <v>10.7104634776949</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -4957,19 +4957,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06639747858404663</v>
+        <v>0.3975379925259045</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2151285276866355</v>
+        <v>0.5481405950624108</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07714507823956784</v>
+        <v>0.200801846296686</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2576770819922615</v>
+        <v>0.6305061399589258</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>8.142411052282148</v>
+        <v>22.17990075467235</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.3561955119100291</v>
+        <v>0.3669183444423886</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.4765276134986741</v>
+        <v>0.5089500332465164</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1772843426664136</v>
+        <v>0.2109914198063887</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.5968211724713099</v>
+        <v>0.6057378512544751</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>16.57446021350125</v>
+        <v>21.1061695324584</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -5535,19 +5535,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.144971783824377</v>
+        <v>1.170781497428683</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9780075685174017</v>
+        <v>0.8783567425060803</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3474235202912341</v>
+        <v>0.3171462262640085</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.070033543317394</v>
+        <v>1.082026569650063</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>43.86579806774413</v>
+        <v>42.40520385911332</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -5565,19 +5565,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.7028819507798472</v>
+        <v>1.830096300504266</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.6798555195809703</v>
+        <v>1.113775881084876</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2448619062404099</v>
+        <v>0.4242826886609829</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.8383805524818948</v>
+        <v>1.352810519069196</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>30.72969510121753</v>
+        <v>64.3878626082484</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -5679,13 +5679,13 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.475823312997818</v>
+        <v>0.4758233</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5517531037330627</v>
+        <v>0.551753</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2559218406677246</v>
+        <v>0.2559218</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.6897994730338796</v>
@@ -5709,19 +5709,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.5804341435432434</v>
+        <v>0.5804341</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.6507998704910278</v>
+        <v>0.6507999</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2930598258972168</v>
+        <v>0.29305977</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7618622864686527</v>
+        <v>0.7618622473509228</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>22.86861687898636</v>
+        <v>22.86861538887024</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -5741,19 +5741,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1544562429189682</v>
+        <v>0.15447757</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3070553243160248</v>
+        <v>0.307056</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1063661947846413</v>
+        <v>0.10636559</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3930092148015975</v>
+        <v>0.3930363424425744</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>11.40839233994484</v>
+        <v>11.40840873122215</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -5771,19 +5771,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.2441674917936325</v>
+        <v>0.2441676</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3982213735580444</v>
+        <v>0.3982215</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1376748383045197</v>
+        <v>0.13767487</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.4941330709370023</v>
+        <v>0.4941331764835881</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>15.33239483833313</v>
+        <v>15.33239930868149</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -5803,19 +5803,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2617223560810089</v>
+        <v>0.26172423</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4377875030040741</v>
+        <v>0.43778986</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1786545217037201</v>
+        <v>0.17865549</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5115880726531932</v>
+        <v>0.5115899076675764</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>17.78519451618195</v>
+        <v>17.78529435396194</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -5833,19 +5833,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.4515263736248016</v>
+        <v>0.45193967</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.5401120185852051</v>
+        <v>0.54055125</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2498532980680466</v>
+        <v>0.2500153</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.6719571218647821</v>
+        <v>0.6722645849899236</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>19.54554617404938</v>
+        <v>19.55903321504593</v>
       </c>
     </row>
   </sheetData>
@@ -6143,19 +6143,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06859894567387627</v>
+        <v>0.0391078983929872</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2055512775088583</v>
+        <v>0.1542815605192919</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.556526981460877</v>
+        <v>0.3453942811802127</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2619140043485195</v>
+        <v>0.1977571702694677</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>38.85695434189066</v>
+        <v>25.21479245558708</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -6173,19 +6173,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06859894567387627</v>
+        <v>0.0391078983929872</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2055512775088583</v>
+        <v>0.1542815605192919</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1.556526981460877</v>
+        <v>0.3453942811802127</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2619140043485195</v>
+        <v>0.1977571702694677</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>38.85695434189066</v>
+        <v>25.21479245558708</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -6263,23 +6263,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4193856260152439</v>
+        <v>0.4357310941631132</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5973340539100465</v>
+        <v>0.6460755801692886</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1</v>
+        <v>1.05024779717236</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.647599896552836</v>
+        <v>0.6600993062889199</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>200</v>
+        <v>166.3352566060653</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -6297,19 +6297,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.4014295826425991</v>
+        <v>0.270595022707914</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5821098939100463</v>
+        <v>0.4920037375638698</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.9455999238114763</v>
+        <v>0.752503246707746</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.6335847083402496</v>
+        <v>0.5201874880347604</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>182.5663168470839</v>
+        <v>123.748884318756</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -6841,53 +6841,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.0389837977522013</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1513947760865467</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2748461144600707</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1974431506844472</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>25.37185578072394</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>0.07484681951638376</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.2134170232314372</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>1.644640430905179</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>0.2735814677868071</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>39.618228844836</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>0.07484681951638376</v>
+        <v>0.0376432949161328</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2134170232314372</v>
+        <v>0.1374550889575612</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.644640430905179</v>
+        <v>0.262838724935778</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2735814677868071</v>
+        <v>0.1940188004192707</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>39.618228844836</v>
+        <v>22.8836820856746</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -6989,19 +6989,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02399084158241749</v>
+        <v>0.023990951</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1156211122870445</v>
+        <v>0.11559046</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2864454090595245</v>
+        <v>0.28647456</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1548897723622108</v>
+        <v>0.1548901271175193</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>21.98460698127747</v>
+        <v>21.97838574647903</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -7019,19 +7019,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.0236960630863905</v>
+        <v>0.023696072</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.118456058204174</v>
+        <v>0.118456066</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2227813899517059</v>
+        <v>0.2227814</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1539352561513785</v>
+        <v>0.1539352864018391</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>20.64201533794403</v>
+        <v>20.64201980829239</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -7051,19 +7051,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1083356440067291</v>
+        <v>0.10833568</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2503564953804016</v>
+        <v>0.25035653</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3578203916549683</v>
+        <v>0.35782045</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3291438044483431</v>
+        <v>0.3291438610389568</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>53.33819985389709</v>
+        <v>53.33821773529053</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -7081,19 +7081,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05387424677610397</v>
+        <v>0.05387421</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1805519610643387</v>
+        <v>0.18055196</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2662358283996582</v>
+        <v>0.2662357</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2321082652042016</v>
+        <v>0.2321081849552078</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>24.20870214700699</v>
+        <v>24.20870661735535</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -7113,19 +7113,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.286445140838623</v>
+        <v>7.380671</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.042566299438477</v>
+        <v>2.0545228</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.271459579467773</v>
+        <v>4.295805</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.699341612474905</v>
+        <v>2.716739042367248</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>132.3996305465698</v>
+        <v>132.2910785675049</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -7143,19 +7143,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.1681445688009262</v>
+        <v>0.16785817</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.3381566405296326</v>
+        <v>0.3375303</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.7162362337112427</v>
+        <v>0.7157595</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.4100543485940933</v>
+        <v>0.4097049773712549</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>58.92182588577271</v>
+        <v>58.77611637115479</v>
       </c>
     </row>
   </sheetData>
@@ -7449,23 +7449,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05986187363128842</v>
+        <v>0.0482758310538254</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1511563789635068</v>
+        <v>0.1728952840782994</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.702263679144231</v>
+        <v>0.5133696785912291</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2446668625525092</v>
+        <v>0.2197176166214839</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.16683562275372</v>
+        <v>29.91327163270417</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -7479,23 +7479,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06230538375834057</v>
+        <v>0.0482758310538254</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1571840546752714</v>
+        <v>0.1728952840782994</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1.783102039701544</v>
+        <v>0.5133696785912291</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2496104640401531</v>
+        <v>0.2197176166214839</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>31.52625265009917</v>
+        <v>29.91327163270417</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -7577,19 +7577,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4811.977110532675</v>
+        <v>0.2881961549590525</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>59.10480237912292</v>
+        <v>0.4877535954749531</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>215.3769136619649</v>
+        <v>0.8979077163051549</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>69.36841579950256</v>
+        <v>0.536839040084691</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>195.0635171818143</v>
+        <v>118.2302944943041</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -7603,23 +7603,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.04990420005153796</v>
+        <v>0.2942305700456972</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1690775027505986</v>
+        <v>0.5125094612941674</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.485266414210569</v>
+        <v>1.050633531680238</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2233924798455355</v>
+        <v>0.5424302444053957</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>35.34918024308288</v>
+        <v>127.6762067468237</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -8151,23 +8151,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05692547314024313</v>
+        <v>0.0344952987746911</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1591915327978086</v>
+        <v>0.1400786682453245</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.647364282666746</v>
+        <v>0.3990792062141013</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2385905973424836</v>
+        <v>0.1857291005057935</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>31.55766289590066</v>
+        <v>25.21410572947686</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -8181,23 +8181,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05083991687755052</v>
+        <v>0.0339322506729436</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1455042699550831</v>
+        <v>0.1405072128945674</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.599666454997916</v>
+        <v>0.3988922994396136</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2254770872562233</v>
+        <v>0.1842070863809089</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>29.79174019936112</v>
+        <v>25.26859148582413</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -8299,19 +8299,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.07405508309602737</v>
+        <v>0.074054606</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2082780450582504</v>
+        <v>0.208277</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.73465895652771</v>
+        <v>0.734658</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2721306360850012</v>
+        <v>0.2721297599654789</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>34.95686650276184</v>
+        <v>34.9567711353302</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -8329,16 +8329,16 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.06064913049340248</v>
+        <v>0.06064914</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1883147060871124</v>
+        <v>0.1883147</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6164388060569763</v>
+        <v>0.616439</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2462704417777385</v>
+        <v>0.2462704644679775</v>
       </c>
       <c r="P22" s="8" t="n">
         <v>35.10123491287231</v>
@@ -8361,19 +8361,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03531743213534355</v>
+        <v>0.035317454</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1487894207239151</v>
+        <v>0.14878948</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2316130995750427</v>
+        <v>0.2316132</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1879293275019723</v>
+        <v>0.1879293869704399</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>22.98640012741089</v>
+        <v>22.98642098903656</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -8391,19 +8391,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01632976159453392</v>
+        <v>0.016329765</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.09293327480554581</v>
+        <v>0.09293327999999999</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1355343163013458</v>
+        <v>0.13553433</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1277879555925907</v>
+        <v>0.1277879701686517</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>12.72557526826859</v>
+        <v>12.72557526826858</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -8423,19 +8423,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2158278971910477</v>
+        <v>0.21583006</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4174196422100067</v>
+        <v>0.41741186</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9912572503089905</v>
+        <v>0.9913149</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4645728115064932</v>
+        <v>0.4645751369363418</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>97.15494513511658</v>
+        <v>97.14627861976624</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -8453,19 +8453,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.4109375774860382</v>
+        <v>0.41101736</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.547713041305542</v>
+        <v>0.5477819</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.446178078651428</v>
+        <v>1.4463181</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.6410441306852737</v>
+        <v>0.6411063549077252</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>97.38335013389587</v>
+        <v>97.39714860916138</v>
       </c>
     </row>
   </sheetData>
@@ -8759,23 +8759,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09523579057937015</v>
+        <v>0.0574563238505272</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1860972853777647</v>
+        <v>0.1883404668773241</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.072632686313288</v>
+        <v>0.642976757374811</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3086029659276951</v>
+        <v>0.2397004877978501</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>31.71909051771148</v>
+        <v>33.28195026169174</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -8789,23 +8789,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'random', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 70, 'max_features': 'log2', 'max_depth': 16, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1103032197029432</v>
+        <v>0.0574563238505272</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2389141386875211</v>
+        <v>0.1883404668773241</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>2.109518864994992</v>
+        <v>0.642976757374811</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.3321192853523313</v>
+        <v>0.2397004877978501</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>39.73773633687732</v>
+        <v>33.28195026169174</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -8883,23 +8883,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3858900725342742</v>
+        <v>0.3572577892436428</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5907627481667352</v>
+        <v>0.5501334557476624</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.176503833387134</v>
+        <v>1.229419734961511</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6212005091226779</v>
+        <v>0.5977104560266976</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>164.1752082151972</v>
+        <v>136.7901942718491</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -8917,19 +8917,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.6842141170941715</v>
+        <v>34.99699033275942</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.6318760185563018</v>
+        <v>4.65376704989208</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>2.002592956433329</v>
+        <v>9.240469036214504</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.8271723623853564</v>
+        <v>5.915825414323804</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>118.1620012892488</v>
+        <v>167.7465463667701</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -9461,23 +9461,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06477210030757304</v>
+        <v>0.0460898000714033</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1713811898496335</v>
+        <v>0.1714008470309397</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.757976072222</v>
+        <v>0.5472459960026238</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.254503635155911</v>
+        <v>0.2146853513200269</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>32.12915789503808</v>
+        <v>31.2055359414695</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -9491,23 +9491,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05827404846741133</v>
+        <v>0.0459130809794032</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.163183969490677</v>
+        <v>0.1714815505035442</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.756983062863264</v>
+        <v>0.5281586977189049</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2414001832381478</v>
+        <v>0.2142733790730972</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>31.19546928112744</v>
+        <v>31.27621887139009</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -9609,19 +9609,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05446305125951767</v>
+        <v>0.05446308</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1441368758678436</v>
+        <v>0.1441369</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6977589130401611</v>
+        <v>0.6977592</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2333732016738804</v>
+        <v>0.2333732655250812</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>27.65165865421295</v>
+        <v>27.65166163444519</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -9639,19 +9639,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.04099586978554726</v>
+        <v>0.040995874</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1583833247423172</v>
+        <v>0.15838325</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5327629446983337</v>
+        <v>0.53276336</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2024743682186643</v>
+        <v>0.2024743774180761</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>29.01575267314911</v>
+        <v>29.01574671268463</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -9671,19 +9671,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02866554073989391</v>
+        <v>0.02866554</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1432258188724518</v>
+        <v>0.14322582</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2245528399944305</v>
+        <v>0.22455283</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.169309009624101</v>
+        <v>0.1693090096241009</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>22.5873276591301</v>
+        <v>22.58732616901398</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -9701,19 +9701,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.09156272560358047</v>
+        <v>0.09156267</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2516256272792816</v>
+        <v>0.25162554</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.5201007127761841</v>
+        <v>0.52010053</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3025933337064458</v>
+        <v>0.3025932475279584</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>42.72087216377258</v>
+        <v>42.72084832191467</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -9733,19 +9733,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.169476255774498</v>
+        <v>0.16945514</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.331290990114212</v>
+        <v>0.33124247</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6056139469146729</v>
+        <v>0.60534215</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4116749394540528</v>
+        <v>0.4116492934878988</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>53.93108725547791</v>
+        <v>53.91122102737427</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -9763,19 +9763,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>9264.375</v>
+        <v>9275.84</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>63.32765579223633</v>
+        <v>63.37212</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>230.0235443115234</v>
+        <v>230.10962</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>96.25162336293347</v>
+        <v>96.31116157408756</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>190.9368515014648</v>
+        <v>190.6549453735352</v>
       </c>
     </row>
   </sheetData>
@@ -10069,23 +10069,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7489022261507635</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3833229294343239</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6568337742657995</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8653913716641526</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>18.57168043920147</v>
+        <v>10.7104634776949</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -10099,23 +10099,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.7489022261507635</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3833229294343239</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6568337742657995</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.8653913716641526</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>18.57168043920147</v>
+        <v>10.7104634776949</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -10193,23 +10193,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.58905079044966</v>
+        <v>5.681166533309043</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.485701849945823</v>
+        <v>2.219304181943595</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1</v>
+        <v>0.8550022375655045</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.566914644169077</v>
+        <v>2.383519778250024</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>200</v>
+        <v>137.613853462276</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -10223,23 +10223,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 2000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 0.15, 'fit_intercept': False, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>125.1503507125685</v>
+        <v>7.660894818906307</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>9.510532986507542</v>
+        <v>2.609267695006859</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>4.852911560285423</v>
+        <v>0.9464371164386028</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>11.18706175510659</v>
+        <v>2.767832151505273</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>131.081905681019</v>
+        <v>160.238921839251</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -10771,23 +10771,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6701166026516419</v>
+        <v>0.1748888617903801</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3700900042554964</v>
+        <v>0.2870941063842033</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6280550073787261</v>
+        <v>0.1207504469996514</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8186065004943718</v>
+        <v>0.4181971566024572</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>18.45698402398672</v>
+        <v>12.01992954486916</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -10801,23 +10801,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.6762162164075802</v>
+        <v>0.1509895527322881</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.363929605783777</v>
+        <v>0.2846064334153267</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6283808218570994</v>
+        <v>0.1266729262132848</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.8223236688844486</v>
+        <v>0.3885737416917001</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>18.19305588740395</v>
+        <v>12.24743052236408</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -10919,19 +10919,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3346024453639984</v>
+        <v>0.3346025</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4465299844741821</v>
+        <v>0.44652998</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1868357807397842</v>
+        <v>0.1868358</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5784483082903764</v>
+        <v>0.5784483598115248</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>19.04504597187042</v>
+        <v>19.04504746198654</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -10949,19 +10949,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.5967571139335632</v>
+        <v>0.5967571</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.6454358100891113</v>
+        <v>0.6454358</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.256902277469635</v>
+        <v>0.2569023</v>
       </c>
       <c r="O22" s="8" t="n">
         <v>0.7725005591800974</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>27.67431437969208</v>
+        <v>27.67431139945984</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -10981,19 +10981,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1445290446281433</v>
+        <v>0.14452907</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3095336556434631</v>
+        <v>0.30953372</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1082445904612541</v>
+        <v>0.108244605</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3801697576453752</v>
+        <v>0.3801697968414452</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>11.69479563832283</v>
+        <v>11.69479712843895</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -11011,19 +11011,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.2308077216148376</v>
+        <v>0.23080768</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4142411053180695</v>
+        <v>0.41424105</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1492455005645752</v>
+        <v>0.14924547</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.4804245222871514</v>
+        <v>0.4804244757621681</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>15.73118716478348</v>
+        <v>15.73118567466736</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -11043,19 +11043,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5878275632858276</v>
+        <v>0.5878116</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6922686696052551</v>
+        <v>0.69226253</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2695158421993256</v>
+        <v>0.26951504</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7666991347887564</v>
+        <v>0.7666887173038532</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>30.59600293636322</v>
+        <v>30.59544265270233</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -11073,19 +11073,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.183431267738342</v>
+        <v>1.1838112</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.9437682032585144</v>
+        <v>0.9438747</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3774585425853729</v>
+        <v>0.37749287</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.087856271636259</v>
+        <v>1.088030876282535</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>35.15295684337616</v>
+        <v>35.15582978725433</v>
       </c>
     </row>
   </sheetData>
@@ -11379,23 +11379,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 30, 'max_features': 'sqrt', 'max_depth': 11, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7071717854332346</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4318818738126662</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6634360082505488</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8409350661217753</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>20.92225005405011</v>
+        <v>14.00947691908368</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -11409,23 +11409,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.6915869264325225</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.468374383415217</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6607284450859555</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.8316170551597186</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>22.3845536474005</v>
+        <v>14.00947691908368</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -11503,53 +11503,53 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>7.087282168961652</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.62281783193559</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.051926909765158</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>2.66219499078517</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>180.5362308594174</v>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Stochastic Gradient Descent Regressor</t>
+        </is>
+      </c>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
           <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
-        <v>285.2743243458844</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>15.09827344545834</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>9.198632504130543</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>16.8900658478848</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>149.9069714961325</v>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Stochastic Gradient Descent Regressor</t>
-        </is>
-      </c>
-      <c r="J11" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K11" s="8" t="inlineStr">
-        <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
-        </is>
-      </c>
       <c r="L11" s="8" t="n">
-        <v>5.905237250956609</v>
+        <v>6601.364571229364</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>2.266072639036602</v>
+        <v>64.68313054580273</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.9503591857139283</v>
+        <v>29.08065552325731</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>2.43006939221015</v>
+        <v>81.24878196766622</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>147.3400253498036</v>
+        <v>182.5143343123876</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -12081,23 +12081,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6821118226234973</v>
+        <v>0.1543686935365685</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4076763987794984</v>
+        <v>0.2609131248845544</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6705056708900476</v>
+        <v>0.1350516266042456</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8259006130422094</v>
+        <v>0.3928978156423989</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>20.16848093984773</v>
+        <v>11.93261777668054</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -12111,23 +12111,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.6234993670634158</v>
+        <v>0.1921448742058808</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3676063867349738</v>
+        <v>0.3024839175358885</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6084047968119913</v>
+        <v>0.1627073502715851</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.7896197610644099</v>
+        <v>0.4383433291449532</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>18.54238445159354</v>
+        <v>13.82025420089809</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -12229,16 +12229,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.5366070866584778</v>
+        <v>0.5366069999999999</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6016298532485962</v>
+        <v>0.60162973</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2764503955841064</v>
+        <v>0.27645043</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7325346999688669</v>
+        <v>0.7325346592850287</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>26.3008326292038</v>
@@ -12259,19 +12259,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.2176585793495178</v>
+        <v>0.21765858</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3299827873706818</v>
+        <v>0.3299827</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1771008670330048</v>
+        <v>0.17710084</v>
       </c>
       <c r="O22" s="8" t="n">
         <v>0.4665389365846304</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>14.54444378614426</v>
+        <v>14.5444393157959</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -12291,16 +12291,16 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3034152984619141</v>
+        <v>0.30341536</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.459735631942749</v>
+        <v>0.4597357</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1695626080036163</v>
+        <v>0.16956264</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5508314610313341</v>
+        <v>0.5508315151355802</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>19.30075585842133</v>
@@ -12321,19 +12321,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.2907170057296753</v>
+        <v>0.29071796</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4434873461723328</v>
+        <v>0.443488</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1601045280694962</v>
+        <v>0.1601048</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.5391817928395536</v>
+        <v>0.5391826772106015</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>17.84160137176514</v>
+        <v>17.84163415431976</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -12353,19 +12353,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.314161658287048</v>
+        <v>1.3144339</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9762765169143677</v>
+        <v>0.9763688</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4004321992397308</v>
+        <v>0.40048134</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.146368901482873</v>
+        <v>1.146487650306091</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>47.0497190952301</v>
+        <v>47.05513417720795</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -12383,19 +12383,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>101926.640625</v>
+        <v>101910.87</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>226.6623229980469</v>
+        <v>226.67685</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>103.1052017211914</v>
+        <v>103.12021</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>319.2595192394426</v>
+        <v>319.2348151243846</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>190.5642867088318</v>
+        <v>190.5729293823242</v>
       </c>
     </row>
   </sheetData>
@@ -12693,19 +12693,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.672366185836622</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4596657211954301</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3795317704553525</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8199793813484715</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>21.56715269209275</v>
+        <v>16.53272817053076</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -12719,23 +12719,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.7563544333389681</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.42892628093809</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.3811458218663171</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.8696863994216353</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>20.57665236034062</v>
+        <v>16.53272817053076</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -12813,23 +12813,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5421385820083997</v>
+        <v>123987.1317046383</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3246346341398593</v>
+        <v>288.7104735356327</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3105415409511844</v>
+        <v>131.4277404094488</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7363006057368143</v>
+        <v>352.1180650075174</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>16.66805514719914</v>
+        <v>195.7516991888299</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -12843,23 +12843,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>6.61763668584692</v>
+        <v>6.832572227231131</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>2.501593190320899</v>
+        <v>2.552250173276811</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.039003823492317</v>
+        <v>1.033844236303106</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>2.572476760992588</v>
+        <v>2.613918940447681</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>174.0271719393158</v>
+        <v>177.0341060908726</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -13391,23 +13391,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5758379768200454</v>
+        <v>0.3691860998247625</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3742812446145128</v>
+        <v>0.396885571747727</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3359811207155414</v>
+        <v>0.2379360394734173</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7588398887908078</v>
+        <v>0.6076068628848448</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>18.58659158997278</v>
+        <v>18.83501500958756</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -13421,23 +13421,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.6598130188278361</v>
+        <v>0.4442872973269304</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.4134751354274766</v>
+        <v>0.4728754061624765</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.360841132675365</v>
+        <v>0.2832167382123238</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.8122887533555023</v>
+        <v>0.6665487959083944</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>20.24196947614101</v>
+        <v>21.53825963305588</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -13539,19 +13539,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3576184809207916</v>
+        <v>0.35761824</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3894853293895721</v>
+        <v>0.38948527</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2302085757255554</v>
+        <v>0.23020852</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5980121076707324</v>
+        <v>0.5980119083280971</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>23.23837876319885</v>
+        <v>23.23837429285049</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -13569,13 +13569,13 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.6473575234413147</v>
+        <v>0.6473575</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.7371284365653992</v>
+        <v>0.73712844</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3334173560142517</v>
+        <v>0.33341736</v>
       </c>
       <c r="O22" s="8" t="n">
         <v>0.804585311474995</v>
@@ -13601,19 +13601,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3862384259700775</v>
+        <v>0.38623852</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4495848715305328</v>
+        <v>0.44958487</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1729253828525543</v>
+        <v>0.17292538</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6214808331477951</v>
+        <v>0.6214809050783818</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.40755194425583</v>
+        <v>18.40755492448807</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -13631,19 +13631,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.7665150761604309</v>
+        <v>0.7667645</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.6387771964073181</v>
+        <v>0.638828</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2312423884868622</v>
+        <v>0.23126964</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.8755084672122999</v>
+        <v>0.8756509130919786</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>29.01814579963684</v>
+        <v>29.02085483074188</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -13663,19 +13663,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>428786.96875</v>
+        <v>428647.25</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>580.0636596679688</v>
+        <v>579.9466</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>234.8030548095703</v>
+        <v>234.76193</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>654.8182715456251</v>
+        <v>654.7115777195329</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>199.4124174118042</v>
+        <v>199.4105339050293</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -13693,19 +13693,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.4208246767520905</v>
+        <v>0.4207773</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.5426733493804932</v>
+        <v>0.5424867</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2704806327819824</v>
+        <v>0.27037275</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.6487100097517307</v>
+        <v>0.648673485707173</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>24.37757402658463</v>
+        <v>24.37265366315842</v>
       </c>
     </row>
   </sheetData>
@@ -13967,19 +13967,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03482935701157479</v>
+        <v>0.0391078983929872</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1492761775508428</v>
+        <v>0.1542815605192919</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2009338563891563</v>
+        <v>0.3453942811802127</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1866262495244835</v>
+        <v>0.1977571702694677</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>21.40085768363254</v>
+        <v>25.21479245558708</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -14051,23 +14051,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03569713729591532</v>
+        <v>0.0679291074289731</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1445734732232896</v>
+        <v>0.2133513416612455</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1859402920328705</v>
+        <v>0.4387370066224901</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1889368606066993</v>
+        <v>0.2606321304616397</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>20.58810486503038</v>
+        <v>35.46726376754273</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -14485,23 +14485,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02778150037787732</v>
+        <v>0.028353581316622</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1319729535441178</v>
+        <v>0.1264583718377581</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1807014114008922</v>
+        <v>0.2893795425465468</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1666778340928311</v>
+        <v>0.1683852170370726</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>19.1316643248931</v>
+        <v>20.94200360022901</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -14615,16 +14615,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04716356843709946</v>
+        <v>0.04716359</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1559055000543594</v>
+        <v>0.15590551</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4106591939926147</v>
+        <v>0.41065925</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2171717487084806</v>
+        <v>0.2171718001694539</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>22.8281632065773</v>
@@ -14659,19 +14659,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07307744026184082</v>
+        <v>0.07307726</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1969567388296127</v>
+        <v>0.19695649</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2538972795009613</v>
+        <v>0.253897</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2703283933696955</v>
+        <v>0.2703280626348409</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>30.57547807693481</v>
+        <v>30.57545125484467</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -14703,19 +14703,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08905778825283051</v>
+        <v>0.08858019</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2669276595115662</v>
+        <v>0.26630813</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5349375605583191</v>
+        <v>0.5327088</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2984255154185555</v>
+        <v>0.2976242448716275</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>37.01390624046326</v>
+        <v>36.93839013576508</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -15021,23 +15021,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02689824965358115</v>
+        <v>0.0574563238505272</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1269589042499646</v>
+        <v>0.1883404668773241</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.3224610133514452</v>
+        <v>0.642976757374811</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1640068585565285</v>
+        <v>0.2397004877978501</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>22.46163430177055</v>
+        <v>33.28195026169174</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -15055,19 +15055,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.05396811629456583</v>
+        <v>0.0574563238505272</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1842442790310237</v>
+        <v>0.1883404668773241</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.5103780368010534</v>
+        <v>0.642976757374811</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2323103878318097</v>
+        <v>0.2397004877978501</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>30.89228775050308</v>
+        <v>33.28195026169174</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -15145,23 +15145,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04368284005355472</v>
+        <v>0.0354478346327285</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1614177373331092</v>
+        <v>0.1345415113180652</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2982678972472317</v>
+        <v>0.3779623035499862</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2090044019956391</v>
+        <v>0.1882759534107542</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>27.78409142910181</v>
+        <v>24.79729863865686</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -15175,23 +15175,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.04368432577610153</v>
+        <v>0.0355522094808988</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1614203752158277</v>
+        <v>0.1342519282956579</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2982881771612452</v>
+        <v>0.3780558474357728</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2090079562507168</v>
+        <v>0.1885529354873554</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>27.78501467164678</v>
+        <v>24.75171594416524</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -15727,19 +15727,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03794521105237865</v>
+        <v>0.0391094615915418</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1495221756607202</v>
+        <v>0.1541805952957889</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3836669837846137</v>
+        <v>0.4684567640171143</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1947953055193545</v>
+        <v>0.1977611225482446</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>25.85661410879682</v>
+        <v>28.84652603430106</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -15757,19 +15757,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.03784896384818334</v>
+        <v>0.0384623467960334</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1491583366869997</v>
+        <v>0.1529422662010676</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3798236162997524</v>
+        <v>0.4657791681063014</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.1945481016308906</v>
+        <v>0.1961181959840377</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>25.79848454064602</v>
+        <v>28.64551821586747</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -15871,16 +15871,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04322292283177376</v>
+        <v>0.04322292</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1224150583148003</v>
+        <v>0.122415066</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.664832592010498</v>
+        <v>0.66483253</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2079012333579908</v>
+        <v>0.2079012243987116</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>23.74701648950577</v>
@@ -15901,19 +15901,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.04206506535410881</v>
+        <v>0.042065065</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1723666936159134</v>
+        <v>0.17236666</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5478084087371826</v>
+        <v>0.5478084</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.205097697096064</v>
+        <v>0.2050976970960639</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>32.00841844081879</v>
+        <v>32.00841546058655</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -15933,19 +15933,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02638289518654346</v>
+        <v>0.026382895</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1227163523435593</v>
+        <v>0.12271635</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1715583354234695</v>
+        <v>0.17155832</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0.1624281231392626</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>19.60902810096741</v>
+        <v>19.60902661085129</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -15963,19 +15963,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02090818248689175</v>
+        <v>0.020908186</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1225966960191727</v>
+        <v>0.12259671</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1868384033441544</v>
+        <v>0.18683842</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1445966199013371</v>
+        <v>0.144596632783001</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>19.42458599805832</v>
+        <v>19.42458748817444</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -15995,19 +15995,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0685649961233139</v>
+        <v>0.068565615</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2265876531600952</v>
+        <v>0.22658473</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6150153279304504</v>
+        <v>0.6150466</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2618491858366451</v>
+        <v>0.2618503666629158</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>42.20393896102905</v>
+        <v>42.20293760299683</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -16025,19 +16025,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.07636378705501556</v>
+        <v>0.07722118</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2525388896465302</v>
+        <v>0.2537855</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.5661923289299011</v>
+        <v>0.5672669</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2763399845390014</v>
+        <v>0.2778869869539914</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>48.56823980808258</v>
+        <v>48.81452023983002</v>
       </c>
     </row>
   </sheetData>
@@ -16299,19 +16299,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04391648603357255</v>
+        <v>0.0482758310538254</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1679726000896552</v>
+        <v>0.1728952840782994</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3390046768527005</v>
+        <v>0.5133696785912291</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2095626064773307</v>
+        <v>0.2197176166214839</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>26.8385981240602</v>
+        <v>29.91327163270417</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -16387,19 +16387,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08153130775767115</v>
+        <v>0.0847438868130983</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2490129266374416</v>
+        <v>0.2365905622134825</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.422765260631271</v>
+        <v>0.5347472519731378</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2855368763534251</v>
+        <v>0.2911080328900223</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>37.27629010825425</v>
+        <v>34.80826599680567</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -16821,19 +16821,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02748870088239512</v>
+        <v>0.0260752717097488</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1319707991169879</v>
+        <v>0.1265127796474197</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2335832605989801</v>
+        <v>0.3427252819187367</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1657971678961831</v>
+        <v>0.1614783939409508</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>21.2569252864428</v>
+        <v>23.16512508572267</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -16947,19 +16947,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04632233083248138</v>
+        <v>0.046322316</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1866959482431412</v>
+        <v>0.18669593</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4827185869216919</v>
+        <v>0.4827186</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2152262317480873</v>
+        <v>0.2152261971306471</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>40.22150337696075</v>
+        <v>40.22149741649628</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -16991,19 +16991,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04734897240996361</v>
+        <v>0.047348958</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1879026889801025</v>
+        <v>0.18790266</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.305629551410675</v>
+        <v>0.3056295</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2175981902727217</v>
+        <v>0.2175981560326337</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>26.32001042366028</v>
+        <v>26.32000744342804</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -17035,19 +17035,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3243719339370728</v>
+        <v>0.32445672</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4856246709823608</v>
+        <v>0.48573643</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.428406953811646</v>
+        <v>1.4283739</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5695365957838642</v>
+        <v>0.5696110265297414</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>56.56901597976685</v>
+        <v>56.57753348350525</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -17321,19 +17321,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05396811629456583</v>
+        <v>0.0574563238505272</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1842442790310237</v>
+        <v>0.1883404668773241</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5103780368010534</v>
+        <v>0.642976757374811</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2323103878318097</v>
+        <v>0.2397004877978501</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.89228775050308</v>
+        <v>33.28195026169174</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -17409,19 +17409,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06118280541077157</v>
+        <v>0.0938366172601769</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2014698754860512</v>
+        <v>0.2508033147912246</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3414874813718003</v>
+        <v>0.7758460868895024</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2473515825920092</v>
+        <v>0.3063276305855823</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>32.68423181210689</v>
+        <v>43.80651962187664</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -17839,23 +17839,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03810302324026226</v>
+        <v>0.0248431941199028</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1508066288156122</v>
+        <v>0.1171276443914249</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4082291598764175</v>
+        <v>0.4160461199383253</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1951999570703392</v>
+        <v>0.1576172392852471</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>25.98398751101334</v>
+        <v>22.3708379824215</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -17969,19 +17969,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04762497544288635</v>
+        <v>0.047624983</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.179069772362709</v>
+        <v>0.17906982</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3485563695430756</v>
+        <v>0.3485565</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.218231472164045</v>
+        <v>0.2182314892344066</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>37.38745748996735</v>
+        <v>37.38746345043182</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -18013,19 +18013,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0963159054517746</v>
+        <v>0.09631588000000001</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2513013184070587</v>
+        <v>0.25130132</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5257993936538696</v>
+        <v>0.5257993</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3103480392265667</v>
+        <v>0.3103480032157977</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>45.1890230178833</v>
+        <v>45.18899917602539</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -18057,19 +18057,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1088437512516975</v>
+        <v>0.10926783</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2253590822219849</v>
+        <v>0.22549497</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9702319502830505</v>
+        <v>0.9724259</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.329914763615843</v>
+        <v>0.3305568496472185</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>34.17344093322754</v>
+        <v>34.16661322116852</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -18343,19 +18343,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06726084144585461</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2155105058152709</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0765684654293943</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2593469518730741</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.834417109646166</v>
+        <v>10.7104634776949</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -18431,19 +18431,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1724842860666826</v>
+        <v>0.205534771870786</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3460490700451048</v>
+        <v>0.3333829072239103</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1189552117056649</v>
+        <v>0.1429197144309648</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4153122753623863</v>
+        <v>0.4533594290083598</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.96461974067126</v>
+        <v>13.50284793904304</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -18861,23 +18861,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2610313471757773</v>
+        <v>0.254369907544579</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3369016786693642</v>
+        <v>0.3691136929581728</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1242756303832841</v>
+        <v>0.1344568360836346</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5109122695490659</v>
+        <v>0.5043509765476607</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>14.90432825846339</v>
+        <v>15.10405513663388</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -18991,19 +18991,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4008939862251282</v>
+        <v>0.40089384</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4788693785667419</v>
+        <v>0.4788693</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2217089831829071</v>
+        <v>0.22170895</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.6331618957463629</v>
+        <v>0.6331617780737528</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>18.11676323413849</v>
+        <v>18.11675876379013</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -19035,13 +19035,13 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6335232257843018</v>
+        <v>0.6335232</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.691108226776123</v>
+        <v>0.69110835</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.244868203997612</v>
+        <v>0.2448682</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0.7959417226055572</v>
@@ -19079,19 +19079,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1501166671514511</v>
+        <v>0.15015474</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.26467365026474</v>
+        <v>0.26470095</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1289991289377213</v>
+        <v>0.12901886</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3874489219903072</v>
+        <v>0.3874980511154881</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.72530373930931</v>
+        <v>10.72608307003975</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -19365,19 +19365,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1529578787043435</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2777347546232478</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1255895264380591</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3910982980074746</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.02166239305382</v>
+        <v>14.00947691908368</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -19453,19 +19453,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2297308723303605</v>
+        <v>0.2418512764968338</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3913141357776261</v>
+        <v>0.3812141148461301</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1563646991258796</v>
+        <v>0.1988521548657092</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4793024852119593</v>
+        <v>0.4917837700624471</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>15.57141176270479</v>
+        <v>16.56250708328431</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -19887,19 +19887,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7433378877195518</v>
+        <v>0.1525884754474814</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5922716788478559</v>
+        <v>0.2778147676306739</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2274472838124417</v>
+        <v>0.1337380987004453</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8621704516622869</v>
+        <v>0.390625748572059</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>30.5309877600662</v>
+        <v>12.68256517011311</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -20013,13 +20013,13 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6136159300804138</v>
+        <v>0.61361593</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5560615062713623</v>
+        <v>0.5560615</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3246951401233673</v>
+        <v>0.3246951</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.7833364092651469</v>
@@ -20057,16 +20057,16 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3752177953720093</v>
+        <v>0.3752179</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5137280821800232</v>
+        <v>0.5137281</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1883778274059296</v>
+        <v>0.18837784</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6125502390596296</v>
+        <v>0.6125503363653463</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>17.01152324676514</v>
@@ -20101,19 +20101,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6516410112380981</v>
+        <v>0.6508149</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5530568957328796</v>
+        <v>0.55223745</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3410229682922363</v>
+        <v>0.3406829</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8072428452690665</v>
+        <v>0.8067309903936449</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>20.94617038965225</v>
+        <v>20.92000842094421</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -20387,19 +20387,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2616953232759602</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3308489167878408</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2031787550172416</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5115616514907663</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>14.2017972742216</v>
+        <v>16.53272817053076</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -20475,19 +20475,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2981000639644403</v>
+        <v>0.3099473397409788</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4273607569762428</v>
+        <v>0.4070079234940373</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2197904417339203</v>
+        <v>0.2566731101908963</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5459854063658115</v>
+        <v>0.5567291439658776</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.14389646515475</v>
+        <v>18.42171553380487</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -20905,23 +20905,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4532128801655349</v>
+        <v>0.3670178994410915</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5315301459515523</v>
+        <v>0.3827005067020446</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2246845201646838</v>
+        <v>0.2164399773219805</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6732108734754177</v>
+        <v>0.6058200223177602</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>23.12557239930341</v>
+        <v>20.9384036374744</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -21035,19 +21035,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6662104725837708</v>
+        <v>0.6662105</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6188953518867493</v>
+        <v>0.6188954</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3993206918239594</v>
+        <v>0.39932072</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.8162171724386659</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>24.22522157430649</v>
+        <v>24.22522455453873</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -21079,16 +21079,16 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5363307595252991</v>
+        <v>0.5363308</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5478840470314026</v>
+        <v>0.547884</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2000877112150192</v>
+        <v>0.20008774</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7323460654125883</v>
+        <v>0.7323461061069034</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>23.10242801904678</v>
@@ -21123,19 +21123,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.256418228149414</v>
+        <v>1.2561535</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9204686284065247</v>
+        <v>0.9203457</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5543846487998962</v>
+        <v>0.55432534</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.120900632593904</v>
+        <v>1.120782523203017</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>32.7599823474884</v>
+        <v>32.75668621063232</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -21445,19 +21445,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04391648603357255</v>
+        <v>0.0482758310538254</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1679726000896552</v>
+        <v>0.1728952840782994</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3390046768527005</v>
+        <v>0.5133696785912291</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2095626064773307</v>
+        <v>0.2197176166214839</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>26.8385981240602</v>
+        <v>29.91327163270417</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -21475,19 +21475,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.04391648603357255</v>
+        <v>0.0482758310538254</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1679726000896552</v>
+        <v>0.1728952840782994</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.3390046768527005</v>
+        <v>0.5133696785912291</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2095626064773307</v>
+        <v>0.2197176166214839</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>26.8385981240602</v>
+        <v>29.91327163270417</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -21569,19 +21569,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02956122128680362</v>
+        <v>0.0283942284928377</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1208428424580751</v>
+        <v>0.122355976223212</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2096288611747208</v>
+        <v>0.2955311916312568</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1719337700592982</v>
+        <v>0.1685058707963545</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>19.05816616250095</v>
+        <v>21.87405122673926</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -21599,19 +21599,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.02957115077465156</v>
+        <v>0.0286583111233893</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1209080136496354</v>
+        <v>0.1232455640192234</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2097097453164751</v>
+        <v>0.2969769267102791</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1719626435440313</v>
+        <v>0.1692876579180813</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>19.06945434884061</v>
+        <v>22.02156918707437</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -22147,19 +22147,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02240670554241686</v>
+        <v>0.0322047485653897</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.118237010808484</v>
+        <v>0.1391478456739468</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2153444065580182</v>
+        <v>0.3758606621281811</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1496886954396252</v>
+        <v>0.1794568153216527</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>19.24583031762322</v>
+        <v>25.1046062171268</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -22173,23 +22173,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.02247325104091318</v>
+        <v>0.0312685111465548</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1189721923157131</v>
+        <v>0.1320127243007735</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2164989232034805</v>
+        <v>0.4255403268209083</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.1499108102870276</v>
+        <v>0.1768290449743901</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>19.37967130175909</v>
+        <v>24.18924807634581</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -22291,19 +22291,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02795759215950966</v>
+        <v>0.027957592</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1141580864787102</v>
+        <v>0.11415809</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4446865618228912</v>
+        <v>0.44468656</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1672052396293539</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>20.73289155960083</v>
+        <v>20.73289006948471</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -22321,19 +22321,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.02201770059764385</v>
+        <v>0.022017702</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1071706861257553</v>
+        <v>0.1071707</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3573378026485443</v>
+        <v>0.35733777</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.148383626447273</v>
+        <v>0.1483836327237239</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>20.98056077957153</v>
+        <v>20.98056524991989</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -22353,19 +22353,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01607054658234119</v>
+        <v>0.016069418</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09516041725873947</v>
+        <v>0.09515245</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1337204426527023</v>
+        <v>0.13370562</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1267696595496777</v>
+        <v>0.1267652074481825</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>13.65521103143692</v>
+        <v>13.65417838096619</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -22383,19 +22383,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02460864931344986</v>
+        <v>0.024608651</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1150756627321243</v>
+        <v>0.1150756</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1551582366228104</v>
+        <v>0.1551581</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1568714419945512</v>
+        <v>0.1568714479314034</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>16.89919680356979</v>
+        <v>16.89918041229248</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -22415,19 +22415,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04562493041157722</v>
+        <v>0.046417374</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.180131584405899</v>
+        <v>0.18134159</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4803581237792969</v>
+        <v>0.48102373</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2135999307386995</v>
+        <v>0.215446917276312</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>32.6612800359726</v>
+        <v>32.83094167709351</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -22445,19 +22445,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.06871959567070007</v>
+        <v>0.069116525</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2281085848808289</v>
+        <v>0.22922052</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.5165873169898987</v>
+        <v>0.5178113</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2621442268498394</v>
+        <v>0.2629002193837068</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>41.35638475418091</v>
+        <v>41.61240458488464</v>
       </c>
     </row>
   </sheetData>
@@ -22755,19 +22755,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06726084144585461</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2155105058152709</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0765684654293943</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2593469518730741</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.834417109646166</v>
+        <v>10.7104634776949</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -22785,19 +22785,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06726084144585461</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2155105058152709</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.0765684654293943</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2593469518730741</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>7.834417109646166</v>
+        <v>10.7104634776949</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -22879,19 +22879,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1628636131495593</v>
+        <v>0.2240021731919833</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3377979361388703</v>
+        <v>0.3739566439552444</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1161271166519597</v>
+        <v>0.1572236892389026</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4035636420065109</v>
+        <v>0.4732886784954647</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.60852895859375</v>
+        <v>15.11726818874801</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -22909,19 +22909,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.1629166628979162</v>
+        <v>0.223933258858456</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3378819569819906</v>
+        <v>0.3737615157522732</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1161572804640655</v>
+        <v>0.1571573939039832</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4036293632751664</v>
+        <v>0.4732158691955037</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>12.61196874190604</v>
+        <v>15.10930099415583</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -23457,19 +23457,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.230697619217411</v>
+        <v>0.0936613868923048</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2855183432398787</v>
+        <v>0.1970224339493286</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.09542761833634698</v>
+        <v>0.095780709657909</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.480309919965652</v>
+        <v>0.3060414790388793</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>11.01373594577751</v>
+        <v>8.265474783814552</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -23483,23 +23483,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.1037189566533299</v>
+        <v>0.08716255871008161</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2689539436177436</v>
+        <v>0.2034805014998626</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.09391019593048952</v>
+        <v>0.0961693151325852</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.3220542759432483</v>
+        <v>0.2952330582947675</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>10.02378404803493</v>
+        <v>8.491564592915415</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -23601,19 +23601,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3080689609050751</v>
+        <v>0.30806902</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4548258185386658</v>
+        <v>0.45482603</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2082229852676392</v>
+        <v>0.20822303</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5550396030060153</v>
+        <v>0.5550396567000595</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>16.92475378513336</v>
+        <v>16.92475825548172</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -23631,19 +23631,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.168717622756958</v>
+        <v>0.16871762</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2265438288450241</v>
+        <v>0.22654393</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1229559034109116</v>
+        <v>0.122955926</v>
       </c>
       <c r="O22" s="8" t="n">
         <v>0.410752507913169</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>9.347269684076309</v>
+        <v>9.347270429134367</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -23663,19 +23663,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07121813297271729</v>
+        <v>0.07120683</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2160541564226151</v>
+        <v>0.21602231</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07483832538127899</v>
+        <v>0.074827306</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2668672572136142</v>
+        <v>0.266846080057309</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.728585600852966</v>
+        <v>7.727383077144623</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -23693,16 +23693,16 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.08163784444332123</v>
+        <v>0.08163782999999999</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2130096256732941</v>
+        <v>0.21300963</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.07364989072084427</v>
+        <v>0.0736499</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.285723370488522</v>
+        <v>0.2857233444123179</v>
       </c>
       <c r="P23" s="8" t="n">
         <v>7.720665633678436</v>
@@ -23725,19 +23725,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.302042245864868</v>
+        <v>1.301605</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9228399395942688</v>
+        <v>0.92244864</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3920611441135406</v>
+        <v>0.39193043</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.14107065770042</v>
+        <v>1.140879040998999</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>29.2131781578064</v>
+        <v>29.201540350914</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -23755,19 +23755,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.2035268843173981</v>
+        <v>0.20357502</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.3007101714611053</v>
+        <v>0.3007967</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.150621771812439</v>
+        <v>0.1506553</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.4511395397406417</v>
+        <v>0.4511928801167569</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>11.93331629037857</v>
+        <v>11.93620711565018</v>
       </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
@@ -24066,19 +24066,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2616953232759602</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3308489167878408</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2031787550172416</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5115616514907663</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>14.2017972742216</v>
+        <v>16.53272817053076</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -24096,19 +24096,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.2616953232759602</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3308489167878408</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2031787550172416</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.5115616514907663</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>14.2017972742216</v>
+        <v>16.53272817053076</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -24190,19 +24190,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2959787871631911</v>
+        <v>0.3511757664237142</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4230976134393362</v>
+        <v>0.4561943977010657</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2192790157511738</v>
+        <v>0.2740184020568495</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5440393250153808</v>
+        <v>0.592600849158786</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.94760461580853</v>
+        <v>20.40407644586281</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -24220,19 +24220,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.2959152541837547</v>
+        <v>0.3510181218352646</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.4230847932628211</v>
+        <v>0.4561021515656377</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2192397017284543</v>
+        <v>0.2739686638673109</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.5439809318199993</v>
+        <v>0.5924678234598607</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>17.94733999142397</v>
+        <v>20.40059676003445</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -24764,23 +24764,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3539665304649598</v>
+        <v>0.1804577358210532</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.41953007530234</v>
+        <v>0.2470717546899919</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.180733668339308</v>
+        <v>0.1909500714084211</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5949508639080708</v>
+        <v>0.4248031730355285</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>18.53016633221354</v>
+        <v>12.1145177908512</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -24794,23 +24794,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.1855823837261693</v>
+        <v>0.1633409046860418</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3023885401146235</v>
+        <v>0.2456677394327206</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.166411239417908</v>
+        <v>0.1724138851891093</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.4307927387110527</v>
+        <v>0.4041545554438819</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>13.33257896217994</v>
+        <v>11.6042700084784</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -24912,19 +24912,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3509285151958466</v>
+        <v>0.3509285</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3678652048110962</v>
+        <v>0.3678652</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2780584692955017</v>
+        <v>0.27805847</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5923921971091842</v>
+        <v>0.5923921719549678</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>16.60909652709961</v>
+        <v>16.60909503698349</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -24942,19 +24942,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.5314120054244995</v>
+        <v>0.53141177</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5305200815200806</v>
+        <v>0.5305199</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3597244322299957</v>
+        <v>0.35972434</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7289801131886243</v>
+        <v>0.7289799496597423</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>21.61261290311813</v>
+        <v>21.61260694265366</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -24974,19 +24974,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1366947889328003</v>
+        <v>0.13669479</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2895739674568176</v>
+        <v>0.28957394</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1119842231273651</v>
+        <v>0.11198422</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0.3697225837473284</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>11.34180501103401</v>
+        <v>11.34180426597595</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -25004,19 +25004,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1409776359796524</v>
+        <v>0.14097771</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2822129130363464</v>
+        <v>0.28221297</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1042288467288017</v>
+        <v>0.10422887</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3754698869145865</v>
+        <v>0.3754699861313263</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>11.14816665649414</v>
+        <v>11.14816963672638</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -25036,19 +25036,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3650895655155182</v>
+        <v>0.3650881</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4402047693729401</v>
+        <v>0.44020346</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2865674495697021</v>
+        <v>0.28656718</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6042264190810579</v>
+        <v>0.6042252106638064</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>19.59570348262787</v>
+        <v>19.59564983844757</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -25066,19 +25066,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.3638736307621002</v>
+        <v>0.3639117</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.3788717091083527</v>
+        <v>0.37888223</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2796166241168976</v>
+        <v>0.27962923</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.6032193885827114</v>
+        <v>0.6032509331346196</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>17.04113781452179</v>
+        <v>17.04138666391373</v>
       </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
@@ -25377,19 +25377,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1529578787043435</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2777347546232478</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1255895264380591</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3910982980074746</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.02166239305382</v>
+        <v>14.00947691908368</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -25407,19 +25407,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1529578787043435</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2777347546232478</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1255895264380591</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.3910982980074746</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>11.02166239305382</v>
+        <v>14.00947691908368</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -25501,19 +25501,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2172884665480757</v>
+        <v>0.2880087379481439</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3810737767610329</v>
+        <v>0.4217668970419213</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1533203234434002</v>
+        <v>0.2204793727971445</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4661421098206808</v>
+        <v>0.5366644556407141</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>15.11311612044268</v>
+        <v>18.15939955254848</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -25531,19 +25531,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.2172013511488236</v>
+        <v>0.2878323143478516</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3810080822918693</v>
+        <v>0.4215163957749206</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1532743777513721</v>
+        <v>0.2204023526804335</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4660486574906353</v>
+        <v>0.5365000599700355</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>15.11054213237496</v>
+        <v>18.14900487738716</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -26075,23 +26075,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.160582120715858</v>
+        <v>0.1697398634514116</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2762904544740852</v>
+        <v>0.270077704342454</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.10623312210171</v>
+        <v>0.1559735738262447</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4007269902512907</v>
+        <v>0.4119949798861772</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>11.13618774031245</v>
+        <v>12.29118674881896</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -26105,23 +26105,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.1329967440077382</v>
+        <v>0.1414651958274911</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2777356004320552</v>
+        <v>0.2632156430736347</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1042812585787491</v>
+        <v>0.1523901182299767</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.3646871865143306</v>
+        <v>0.3761185927702739</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>11.00004047901087</v>
+        <v>11.90354558233235</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -26223,19 +26223,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4659367203712463</v>
+        <v>0.46593666</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5558705925941467</v>
+        <v>0.55587053</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3070706725120544</v>
+        <v>0.3070706</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.6825955759974176</v>
+        <v>0.6825955323371239</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>21.26744389533997</v>
+        <v>21.26743793487549</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -26253,19 +26253,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.4920818507671356</v>
+        <v>0.4920819</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5082421898841858</v>
+        <v>0.5082422</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3088475465774536</v>
+        <v>0.30884758</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7014854601252514</v>
+        <v>0.7014855026098404</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>19.90651041269302</v>
+        <v>19.90651190280914</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -26285,19 +26285,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1714014261960983</v>
+        <v>0.17140141</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3021250069141388</v>
+        <v>0.30212495</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1072343289852142</v>
+        <v>0.10723431</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4140065533250631</v>
+        <v>0.4140065353287761</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>11.63519620895386</v>
+        <v>11.63519471883774</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -26315,19 +26315,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05589771270751953</v>
+        <v>0.05589585</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1918909549713135</v>
+        <v>0.19188626</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.06814409047365189</v>
+        <v>0.068143204</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2364269711930505</v>
+        <v>0.2364230320048584</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>7.127957046031952</v>
+        <v>7.127877324819565</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -26347,13 +26347,13 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5339487791061401</v>
+        <v>0.5339488</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5022919774055481</v>
+        <v>0.5022920400000001</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3120764493942261</v>
+        <v>0.31207648</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>0.7307179887659399</v>
@@ -26377,19 +26377,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.4596260786056519</v>
+        <v>0.4597256</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.4337071180343628</v>
+        <v>0.43386528</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2843869924545288</v>
+        <v>0.28445095</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.6779572837617809</v>
+        <v>0.6780306693359116</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>17.46585369110107</v>
+        <v>17.47098863124847</v>
       </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
@@ -26690,19 +26690,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03482935701157479</v>
+        <v>0.0391078983929872</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1492761775508428</v>
+        <v>0.1542815605192919</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.2009338563891563</v>
+        <v>0.3453942811802127</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1866262495244835</v>
+        <v>0.1977571702694677</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>21.40085768363254</v>
+        <v>25.21479245558708</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -26720,19 +26720,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.03482935701157479</v>
+        <v>0.0391078983929872</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1492761775508428</v>
+        <v>0.1542815605192919</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2009338563891563</v>
+        <v>0.3453942811802127</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.1866262495244835</v>
+        <v>0.1977571702694677</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>21.40085768363254</v>
+        <v>25.21479245558708</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -26814,19 +26814,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03938121886633782</v>
+        <v>0.0429640707073161</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1552905533417446</v>
+        <v>0.1623431012075876</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2024067189077477</v>
+        <v>0.3394030065645385</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1984470177814165</v>
+        <v>0.2072777622112804</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>22.34177862743551</v>
+        <v>26.61168350173265</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -26844,19 +26844,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.0393789356070578</v>
+        <v>0.0429582447367135</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1552816944951753</v>
+        <v>0.1623043945901773</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2023994086926715</v>
+        <v>0.3393608927273418</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1984412648797064</v>
+        <v>0.2072637081997559</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>22.34032243057923</v>
+        <v>26.60508032401237</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -27392,19 +27392,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03870024335957101</v>
+        <v>0.0432232878055796</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.155308924132958</v>
+        <v>0.1632524180922911</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.204021274399817</v>
+        <v>0.3413974971187383</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1967237742611986</v>
+        <v>0.2079021111138116</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>22.3531539111753</v>
+        <v>26.75917895970176</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -27422,19 +27422,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.03891873670183514</v>
+        <v>0.0384285890302182</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1675713385860982</v>
+        <v>0.1519703700771375</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2346888227487481</v>
+        <v>0.3508851591860494</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.1972783229395342</v>
+        <v>0.1960321122424033</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>24.48542361552281</v>
+        <v>24.94231706748726</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03757205232977867</v>
+        <v>0.037572052</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1502401530742645</v>
+        <v>0.15024015</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.374078780412674</v>
+        <v>0.37407878</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1938351163483507</v>
@@ -27566,19 +27566,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.0673658549785614</v>
+        <v>0.06736586</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2118522077798843</v>
+        <v>0.21185224</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3661288022994995</v>
+        <v>0.3661288</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2595493305299811</v>
+        <v>0.2595493448828989</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>35.66492199897766</v>
+        <v>35.6649249792099</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -27598,19 +27598,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01815229095518589</v>
+        <v>0.018152293</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.109551228582859</v>
+        <v>0.10955124</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.139794647693634</v>
+        <v>0.13979466</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1347304381169522</v>
+        <v>0.1347304450294403</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.1923805475235</v>
+        <v>15.19238352775574</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -27628,16 +27628,16 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01895304955542088</v>
+        <v>0.018953048</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1154732406139374</v>
+        <v>0.11547323</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1673404276371002</v>
+        <v>0.16734043</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1376700750178516</v>
+        <v>0.1376700682529638</v>
       </c>
       <c r="P23" s="8" t="n">
         <v>16.14631712436676</v>
@@ -27660,19 +27660,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05089903622865677</v>
+        <v>0.050916485</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1744633615016937</v>
+        <v>0.17446923</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4543383121490479</v>
+        <v>0.45440203</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2256081475227718</v>
+        <v>0.225646815817141</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>27.28018164634705</v>
+        <v>27.28011310100556</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27690,19 +27690,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.04674909636378288</v>
+        <v>0.046567954</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1783269345760345</v>
+        <v>0.17778766</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4391064941883087</v>
+        <v>0.4378404</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2162153934477906</v>
+        <v>0.2157960938548707</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>28.04869115352631</v>
+        <v>27.98465192317962</v>
       </c>
     </row>
   </sheetData>
@@ -28004,19 +28004,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05396811629456583</v>
+        <v>0.0574563238505272</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1842442790310237</v>
+        <v>0.1883404668773241</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.5103780368010534</v>
+        <v>0.642976757374811</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2323103878318097</v>
+        <v>0.2397004877978501</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.89228775050308</v>
+        <v>33.28195026169174</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -28034,19 +28034,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.05396811629456583</v>
+        <v>0.0574563238505272</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1842442790310237</v>
+        <v>0.1883404668773241</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.5103780368010534</v>
+        <v>0.642976757374811</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2323103878318097</v>
+        <v>0.2397004877978501</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>30.89228775050308</v>
+        <v>33.28195026169174</v>
       </c>
     </row>
     <row r="10">
@@ -28128,19 +28128,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05683083740970286</v>
+        <v>0.0601461952757766</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1893323596850643</v>
+        <v>0.1959511106507954</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4904682377202668</v>
+        <v>0.6155723054850655</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2383921924260584</v>
+        <v>0.2452472125749376</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>31.85651376486168</v>
+        <v>34.77008355816966</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -28158,19 +28158,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.05681376712594938</v>
+        <v>0.0601162707508183</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1892826425416491</v>
+        <v>0.1958937209373163</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.490581827901119</v>
+        <v>0.6153975367430822</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2383563867949617</v>
+        <v>0.2451861960853797</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>31.84717075012515</v>
+        <v>34.7614229233207</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -28702,23 +28702,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05336847545196241</v>
+        <v>0.0606451335986931</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.18477614599861</v>
+        <v>0.197158183597521</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5083244867554495</v>
+        <v>0.6198237358195611</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2310161800652985</v>
+        <v>0.2462623267954177</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>31.05594485047248</v>
+        <v>34.95067633616998</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -28736,19 +28736,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05747767375307843</v>
+        <v>0.0606451335986931</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1905682672574251</v>
+        <v>0.197158183597521</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.4941894224957669</v>
+        <v>0.6198237358195611</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2397450182028366</v>
+        <v>0.2462623267954177</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>32.04034218100848</v>
+        <v>34.95067633616998</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -28850,16 +28850,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06145502999424934</v>
+        <v>0.061455015</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2000758051872253</v>
+        <v>0.20007579</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6219900250434875</v>
+        <v>0.6219901</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2479012504894829</v>
+        <v>0.2479012204348501</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>35.46584248542786</v>
@@ -28880,19 +28880,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.08751754462718964</v>
+        <v>0.08751755999999999</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2272886484861374</v>
+        <v>0.2272887</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.8867395520210266</v>
+        <v>0.8867397</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2958336435011908</v>
+        <v>0.2958336686862244</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>36.7665708065033</v>
+        <v>36.76657378673553</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -28912,19 +28912,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03636663034558296</v>
+        <v>0.036366634</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1604098230600357</v>
+        <v>0.16040982</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2880199551582336</v>
+        <v>0.28801996</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1907003679744299</v>
+        <v>0.1907003777418211</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>25.42931437492371</v>
+        <v>25.4293143749237</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -28942,19 +28942,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05604491382837296</v>
+        <v>0.05604491</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1814903318881989</v>
+        <v>0.18149032</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.3291625678539276</v>
+        <v>0.32916254</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2367380700866951</v>
+        <v>0.2367380622187371</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>28.06846499443054</v>
+        <v>28.06845903396606</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -28974,19 +28974,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0549030564725399</v>
+        <v>0.0551213</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1829028278589249</v>
+        <v>0.18312575</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6341125965118408</v>
+        <v>0.6346546</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2343140125398818</v>
+        <v>0.2347792556410915</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>32.5021505355835</v>
+        <v>32.53171443939209</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -29004,19 +29004,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.06786606460809708</v>
+        <v>0.06786704</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1990897506475449</v>
+        <v>0.19907913</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.7917343378067017</v>
+        <v>0.79182667</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2605111602371328</v>
+        <v>0.260513033520696</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>33.71777832508087</v>
+        <v>33.71537923812866</v>
       </c>
     </row>
   </sheetData>
@@ -29316,19 +29316,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04391648603357255</v>
+        <v>0.0482758310538254</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1679726000896552</v>
+        <v>0.1728952840782994</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.3390046768527005</v>
+        <v>0.5133696785912291</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2095626064773307</v>
+        <v>0.2197176166214839</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>26.8385981240602</v>
+        <v>29.91327163270417</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -29346,19 +29346,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.04391648603357255</v>
+        <v>0.0482758310538254</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1679726000896552</v>
+        <v>0.1728952840782994</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.3390046768527005</v>
+        <v>0.5133696785912291</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2095626064773307</v>
+        <v>0.2197176166214839</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>26.8385981240602</v>
+        <v>29.91327163270417</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -29440,19 +29440,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04733033673323182</v>
+        <v>0.0512151965505589</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1730580335739963</v>
+        <v>0.1800861222231722</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3304677903141557</v>
+        <v>0.4949884551941936</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2175553647539674</v>
+        <v>0.226307747438215</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>27.71491264553452</v>
+        <v>31.26075188766812</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -29470,19 +29470,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.04730423024527435</v>
+        <v>0.0512139808119309</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1730006532368493</v>
+        <v>0.1800390471203922</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.3303464207948387</v>
+        <v>0.4949948975519849</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2174953568361273</v>
+        <v>0.2263050613926496</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>27.70598286907697</v>
+        <v>31.25207039582362</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -30014,53 +30014,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.0563599416606305</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1866436965544354</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.5308580517363222</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2374024887414421</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>32.17016506051104</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>0.04782404615145833</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.1742824912945103</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0.3331198320609985</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>0.2186870964448025</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>27.90827569288556</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>0.04782404615145833</v>
+        <v>0.0520063832965668</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1742824912945103</v>
+        <v>0.182170879089135</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3331198320609985</v>
+        <v>0.5010112169216413</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2186870964448025</v>
+        <v>0.2280490808939313</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>27.90827569288556</v>
+        <v>31.58592414162274</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -30162,13 +30162,13 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05288172513246536</v>
+        <v>0.052881725</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.171473503112793</v>
+        <v>0.1714735</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5771191120147705</v>
+        <v>0.5771191</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2299602685953931</v>
@@ -30192,16 +30192,16 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.04842990264296532</v>
+        <v>0.048429906</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1742501705884933</v>
+        <v>0.17425019</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5188045501708984</v>
+        <v>0.5188045999999999</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2200679500585338</v>
+        <v>0.2200679585224882</v>
       </c>
       <c r="P22" s="8" t="n">
         <v>30.11268079280853</v>
@@ -30224,19 +30224,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02521322667598724</v>
+        <v>0.025213223</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1398157626390457</v>
+        <v>0.13981576</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2209355235099792</v>
+        <v>0.22093551</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1587867333122867</v>
+        <v>0.1587867215818027</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>20.56706696748734</v>
+        <v>20.56706696748733</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -30254,16 +30254,16 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03751811385154724</v>
+        <v>0.03751811</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1653498113155365</v>
+        <v>0.16534981</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2633285224437714</v>
+        <v>0.26332852</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1936959314274496</v>
+        <v>0.1936959218111133</v>
       </c>
       <c r="P23" s="8" t="n">
         <v>23.81131947040558</v>
@@ -30286,19 +30286,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04930396005511284</v>
+        <v>0.049300488</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1705552637577057</v>
+        <v>0.17064387</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5554669499397278</v>
+        <v>0.5552299000000001</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2220449505282947</v>
+        <v>0.2220371322201642</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>29.24978733062744</v>
+        <v>29.2650580406189</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -30316,19 +30316,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.04939265549182892</v>
+        <v>0.049329776</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1674966663122177</v>
+        <v>0.16703364</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.5523165464401245</v>
+        <v>0.5522493000000001</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2222445848425309</v>
+        <v>0.2221030758834311</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>28.98044586181641</v>
+        <v>28.9025217294693</v>
       </c>
     </row>
   </sheetData>
